--- a/medicine/Enfance/Peter_van_Gestel/Peter_van_Gestel.xlsx
+++ b/medicine/Enfance/Peter_van_Gestel/Peter_van_Gestel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter van Gestel est un écrivain et un scénariste néerlandais né le 3 août 1937 à Amsterdam et mort dans la même ville le 1er mars 2019[1]. Il est auteur de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter van Gestel est un écrivain et un scénariste néerlandais né le 3 août 1937 à Amsterdam et mort dans la même ville le 1er mars 2019. Il est auteur de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peter van Gestel étudie pour faire du théâtre radiophonique. En plus d'être acteur, il commence à écrire comme scénariste et dramaturge pour la Nederlandse Christelijke Radio Vereniging[2]. Il travaille entre autres pour la série télévisée Het wassende water (1986).
-Il reçoit un prix littéraire, le Reina Prinsen Geerligsprijs, pour son premier livre en 1961[3]. Il commence à écrire des récits pour enfants dans de grands titres de presse, d'abord Vrij Nederland puis Het Parool.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peter van Gestel étudie pour faire du théâtre radiophonique. En plus d'être acteur, il commence à écrire comme scénariste et dramaturge pour la Nederlandse Christelijke Radio Vereniging. Il travaille entre autres pour la série télévisée Het wassende water (1986).
+Il reçoit un prix littéraire, le Reina Prinsen Geerligsprijs, pour son premier livre en 1961. Il commence à écrire des récits pour enfants dans de grands titres de presse, d'abord Vrij Nederland puis Het Parool.
 L'œuvre qui a reçu le plus de prix reste Marike et la forêt hantée (1997), inspiré d'un miracle du XVIe siècle, Mariken van Nieumeghen . Ce roman devient un film en 2000, avec Laurien Van den Broeck dans le rôle-titre, Willeke van Ammelrooy et Kim van Kooten.
-L'hiver où j'ai grandi (2000) gagne à nouveau de nombreux prix. Pour l'ensemble de son œuvre, Peter van Gestel reçoit le Theo Thijssenprijs en 2006[3].
+L'hiver où j'ai grandi (2000) gagne à nouveau de nombreux prix. Pour l'ensemble de son œuvre, Peter van Gestel reçoit le Theo Thijssenprijs en 2006.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Marike et la forêt hantée (Mariken, 1997), Paris, Gallimard jeunesse, 2011.
 L'hiver où j'ai grandi (Winterijs, 2000), Paris, Gallimard jeunesse, 2009.</t>
